--- a/vygruzka_17_10.xlsx
+++ b/vygruzka_17_10.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="new_members__1" localSheetId="0">Аркуш1!$A$1:$H$253</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1380">
   <si>
     <t>ID</t>
   </si>
@@ -2361,9 +2361,6 @@
   </si>
   <si>
     <t>+7 (962) 770-14-15</t>
-  </si>
-  <si>
-    <t>РТУ МИРЭВ</t>
   </si>
   <si>
     <t>https://vk.com/mr.moshes</t>
@@ -4190,7 +4187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4840,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:H253"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,13 +5690,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="E33" s="2">
         <v>37341</v>
@@ -5708,10 +5705,10 @@
         <v>144</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>784</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5719,13 +5716,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="E34" s="2">
         <v>37866</v>
@@ -5734,10 +5731,10 @@
         <v>144</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>794</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,13 +5742,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="E35" s="2">
         <v>37826</v>
@@ -5760,10 +5757,10 @@
         <v>144</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>810</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,13 +5768,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="E36" s="2">
         <v>37105</v>
@@ -5786,10 +5783,10 @@
         <v>144</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>843</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,13 +5794,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="E37" s="2">
         <v>37258</v>
@@ -5812,10 +5809,10 @@
         <v>111</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>893</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5823,13 +5820,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="E38" s="2">
         <v>36253</v>
@@ -5838,10 +5835,10 @@
         <v>144</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>931</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5849,13 +5846,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="E39" s="2">
         <v>37437</v>
@@ -5864,10 +5861,10 @@
         <v>144</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>952</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5875,13 +5872,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="E40" s="2">
         <v>32849</v>
@@ -5890,10 +5887,10 @@
         <v>144</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>957</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5901,13 +5898,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="E41" s="2">
         <v>37709</v>
@@ -5916,10 +5913,10 @@
         <v>144</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>1037</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5927,13 +5924,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1047</v>
       </c>
       <c r="E42" s="2">
         <v>37689</v>
@@ -5942,10 +5939,10 @@
         <v>144</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>1048</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5953,13 +5950,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="E43" s="2">
         <v>37245</v>
@@ -5968,10 +5965,10 @@
         <v>144</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>1064</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5979,13 +5976,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="E44" s="2">
         <v>37593</v>
@@ -5994,10 +5991,10 @@
         <v>144</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>1069</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -6005,13 +6002,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="E45" s="2">
         <v>37898</v>
@@ -6020,10 +6017,10 @@
         <v>144</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>1074</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -6031,13 +6028,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="E46" s="2">
         <v>37707</v>
@@ -6046,10 +6043,10 @@
         <v>144</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>1085</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -6057,13 +6054,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="E47" s="2">
         <v>37740</v>
@@ -6072,10 +6069,10 @@
         <v>144</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>1090</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6083,13 +6080,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="E48" s="2">
         <v>36969</v>
@@ -6098,10 +6095,10 @@
         <v>144</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>1095</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -6109,13 +6106,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="E49" s="2">
         <v>30956</v>
@@ -6124,10 +6121,10 @@
         <v>144</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>1118</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6135,13 +6132,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="E50" s="2">
         <v>36786</v>
@@ -6150,10 +6147,10 @@
         <v>144</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>1133</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -6161,13 +6158,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="E51" s="2">
         <v>37045</v>
@@ -6176,10 +6173,10 @@
         <v>144</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>1148</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6187,13 +6184,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="E52" s="2">
         <v>37901</v>
@@ -6202,10 +6199,10 @@
         <v>144</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>1185</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6213,13 +6210,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="E53" s="2">
         <v>37280</v>
@@ -6228,10 +6225,10 @@
         <v>144</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>1196</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6239,13 +6236,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="E54" s="2">
         <v>38028</v>
@@ -6254,10 +6251,10 @@
         <v>144</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>1212</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6265,13 +6262,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="E55" s="2">
         <v>37000</v>
@@ -6280,10 +6277,10 @@
         <v>144</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>1217</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6291,13 +6288,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1221</v>
       </c>
       <c r="E56" s="2">
         <v>37469</v>
@@ -6306,10 +6303,10 @@
         <v>144</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>1222</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -6317,13 +6314,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="E57" s="2">
         <v>37784</v>
@@ -6332,10 +6329,10 @@
         <v>144</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>1227</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -6343,13 +6340,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1231</v>
       </c>
       <c r="E58" s="2">
         <v>36661</v>
@@ -6358,10 +6355,10 @@
         <v>144</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>1232</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -6369,13 +6366,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1246</v>
       </c>
       <c r="E59" s="2">
         <v>37874</v>
@@ -6384,10 +6381,10 @@
         <v>144</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>1247</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6395,13 +6392,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1256</v>
       </c>
       <c r="E60" s="2">
         <v>37746</v>
@@ -6410,10 +6407,10 @@
         <v>144</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>1257</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6421,13 +6418,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1261</v>
       </c>
       <c r="E61" s="2">
         <v>38022</v>
@@ -6436,10 +6433,10 @@
         <v>144</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>1262</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -6447,13 +6444,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1266</v>
       </c>
       <c r="E62" s="2">
         <v>37485</v>
@@ -6462,10 +6459,10 @@
         <v>144</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>1267</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -6473,13 +6470,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="E63" s="2">
         <v>37866</v>
@@ -6488,10 +6485,10 @@
         <v>144</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -6499,13 +6496,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="E64" s="2">
         <v>37209</v>
@@ -6514,10 +6511,10 @@
         <v>144</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>1309</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6525,13 +6522,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1313</v>
       </c>
       <c r="E65" s="2">
         <v>37222</v>
@@ -6540,10 +6537,10 @@
         <v>144</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>1314</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6551,13 +6548,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="E66" s="2">
         <v>37588</v>
@@ -6566,10 +6563,10 @@
         <v>144</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>1351</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6577,13 +6574,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1361</v>
       </c>
       <c r="E67" s="2">
         <v>37060</v>
@@ -6592,10 +6589,10 @@
         <v>144</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>1362</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6837,13 +6834,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="E77" s="2">
         <v>38017</v>
@@ -6852,10 +6849,10 @@
         <v>52</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6863,13 +6860,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="E78" s="2">
         <v>37775</v>
@@ -6878,10 +6875,10 @@
         <v>52</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H78" s="11" t="s">
         <v>1053</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6889,13 +6886,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="E79" s="2">
         <v>36724</v>
@@ -6904,10 +6901,10 @@
         <v>52</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H79" s="11" t="s">
         <v>1138</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6915,13 +6912,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1241</v>
       </c>
       <c r="E80" s="2">
         <v>37757</v>
@@ -6930,10 +6927,10 @@
         <v>52</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H80" s="11" t="s">
         <v>1242</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6941,13 +6938,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1251</v>
       </c>
       <c r="E81" s="2">
         <v>37860</v>
@@ -6956,10 +6953,10 @@
         <v>52</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H81" s="11" t="s">
         <v>1252</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6967,13 +6964,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>1377</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1378</v>
       </c>
       <c r="E82" s="2">
         <v>28043</v>
@@ -6982,10 +6979,10 @@
         <v>52</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H82" s="11" t="s">
         <v>1379</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -7019,25 +7016,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1189</v>
       </c>
       <c r="E84" s="2">
         <v>37880</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="11" t="s">
         <v>1191</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -7149,25 +7146,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1236</v>
       </c>
       <c r="E89" s="2">
         <v>37757</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>440</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7201,25 +7198,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>1041</v>
       </c>
       <c r="E91" s="8">
         <v>35785</v>
       </c>
       <c r="F91" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="H91" s="9" t="s">
         <v>1043</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -7253,25 +7250,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>1109</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="D93" s="13" t="s">
         <v>1110</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>1111</v>
       </c>
       <c r="E93" s="14">
         <v>34741</v>
       </c>
       <c r="F93" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G93" s="13" t="s">
         <v>1112</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="H93" s="15" t="s">
         <v>1113</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7305,13 +7302,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="E95" s="2">
         <v>33898</v>
@@ -7320,10 +7317,10 @@
         <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>1143</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7331,13 +7328,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="D96" s="13" t="s">
         <v>1167</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>1168</v>
       </c>
       <c r="E96" s="14">
         <v>35003</v>
@@ -7346,10 +7343,10 @@
         <v>11</v>
       </c>
       <c r="G96" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H96" s="15" t="s">
         <v>1169</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -7357,25 +7354,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="D97" s="7" t="s">
         <v>885</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>886</v>
       </c>
       <c r="E97" s="8">
         <v>36523</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="H97" s="9" t="s">
         <v>888</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7383,25 +7380,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>1204</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="D98" s="13" t="s">
         <v>1205</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>1206</v>
       </c>
       <c r="E98" s="14">
         <v>36803</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G98" s="13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H98" s="15" t="s">
         <v>1207</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7409,25 +7406,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="27" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C99" s="27" t="s">
         <v>1353</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="D99" s="27" t="s">
         <v>1354</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>1355</v>
       </c>
       <c r="E99" s="28">
         <v>36400</v>
       </c>
       <c r="F99" s="27" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G99" s="27" t="s">
         <v>1356</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="H99" s="29" t="s">
         <v>1357</v>
-      </c>
-      <c r="H99" s="29" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -7461,13 +7458,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="E101" s="2">
         <v>35492</v>
@@ -7476,10 +7473,10 @@
         <v>29</v>
       </c>
       <c r="G101" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="H101" s="11" t="s">
         <v>947</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7487,13 +7484,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="E102" s="2">
         <v>35076</v>
@@ -7502,10 +7499,10 @@
         <v>29</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H102" s="11" t="s">
         <v>1021</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7799,25 +7796,25 @@
         <v>112</v>
       </c>
       <c r="B114" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>911</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>912</v>
       </c>
       <c r="E114" s="14">
         <v>36766</v>
       </c>
       <c r="F114" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="H114" s="15" t="s">
         <v>914</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -7851,13 +7848,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>1339</v>
       </c>
       <c r="E116" s="2">
         <v>35976</v>
@@ -7866,10 +7863,10 @@
         <v>664</v>
       </c>
       <c r="G116" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H116" s="11" t="s">
         <v>1340</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -7903,25 +7900,25 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="E118" s="2">
         <v>35293</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="11" t="s">
         <v>849</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7981,25 +7978,25 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="E121" s="2">
         <v>36164</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="11" t="s">
         <v>805</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -8059,13 +8056,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="E124" s="2">
         <v>36664</v>
@@ -8074,10 +8071,10 @@
         <v>451</v>
       </c>
       <c r="G124" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H124" s="11" t="s">
         <v>820</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -8111,13 +8108,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="E126" s="2">
         <v>36285</v>
@@ -8126,10 +8123,10 @@
         <v>761</v>
       </c>
       <c r="G126" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H126" s="11" t="s">
         <v>898</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -8267,13 +8264,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="E132" s="2">
         <v>37009</v>
@@ -8282,10 +8279,10 @@
         <v>46</v>
       </c>
       <c r="G132" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H132" s="11" t="s">
         <v>815</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -8423,25 +8420,25 @@
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="E138" s="2">
         <v>36339</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="11" t="s">
         <v>1011</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -8475,25 +8472,25 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="E140" s="2">
         <v>36751</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="11" t="s">
         <v>1101</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8501,25 +8498,25 @@
         <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>1104</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>1105</v>
       </c>
       <c r="E141" s="31">
         <v>35944</v>
       </c>
       <c r="F141" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="H141" s="32" t="s">
         <v>1107</v>
-      </c>
-      <c r="H141" s="32" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -8527,25 +8524,25 @@
         <v>139</v>
       </c>
       <c r="B142" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C142" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="D142" s="7" t="s">
         <v>874</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>875</v>
       </c>
       <c r="E142" s="8">
         <v>36524</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="H142" s="9" t="s">
         <v>877</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -8553,25 +8550,25 @@
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="E143" s="2">
         <v>33537</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G143" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H143" s="11" t="s">
         <v>903</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -8579,25 +8576,25 @@
         <v>141</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="E144" s="2">
         <v>36986</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G144" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H144" s="11" t="s">
         <v>908</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -8605,25 +8602,25 @@
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="E145" s="2">
         <v>35968</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="11" t="s">
         <v>926</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -8631,25 +8628,25 @@
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="E146" s="2">
         <v>37087</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G146" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="H146" s="11" t="s">
         <v>942</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -8657,25 +8654,25 @@
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="E147" s="2">
         <v>36550</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G147" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H147" s="11" t="s">
         <v>1005</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -8683,25 +8680,25 @@
         <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="E148" s="2">
         <v>36887</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G148" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H148" s="11" t="s">
         <v>1026</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -8709,25 +8706,25 @@
         <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="E149" s="2">
         <v>37121</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G149" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H149" s="11" t="s">
         <v>1123</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -8735,25 +8732,25 @@
         <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="E150" s="2">
         <v>36110</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G150" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H150" s="11" t="s">
         <v>1164</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -8761,25 +8758,25 @@
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="E151" s="2">
         <v>30259</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G151" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H151" s="11" t="s">
         <v>1180</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -8787,25 +8784,25 @@
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>1329</v>
       </c>
       <c r="E152" s="2">
         <v>36199</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G152" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H152" s="11" t="s">
         <v>1330</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -8839,25 +8836,25 @@
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="E154" s="2">
         <v>36539</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="11" t="s">
         <v>1059</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -8865,25 +8862,25 @@
         <v>159</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="E155" s="2">
         <v>36902</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="H155" s="11" t="s">
         <v>980</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8891,25 +8888,25 @@
         <v>160</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="13" t="s">
         <v>1077</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>1078</v>
       </c>
       <c r="E156" s="14">
         <v>36965</v>
       </c>
       <c r="F156" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G156" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="G156" s="13" t="s">
+      <c r="H156" s="15" t="s">
         <v>1080</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8943,25 +8940,25 @@
         <v>153</v>
       </c>
       <c r="B158" s="17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>1321</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="D158" s="17" t="s">
         <v>1322</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>1323</v>
       </c>
       <c r="E158" s="18">
         <v>36378</v>
       </c>
       <c r="F158" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G158" s="17" t="s">
         <v>1324</v>
       </c>
-      <c r="G158" s="17" t="s">
+      <c r="H158" s="19" t="s">
         <v>1325</v>
-      </c>
-      <c r="H158" s="19" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -8995,13 +8992,13 @@
         <v>155</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>1127</v>
       </c>
       <c r="E160" s="2">
         <v>36872</v>
@@ -9010,10 +9007,10 @@
         <v>239</v>
       </c>
       <c r="G160" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H160" s="11" t="s">
         <v>1128</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9021,25 +9018,25 @@
         <v>156</v>
       </c>
       <c r="B161" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="D161" s="13" t="s">
         <v>1172</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>1173</v>
       </c>
       <c r="E161" s="14">
         <v>36275</v>
       </c>
       <c r="F161" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G161" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="G161" s="13" t="s">
+      <c r="H161" s="15" t="s">
         <v>1175</v>
-      </c>
-      <c r="H161" s="15" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9047,25 +9044,25 @@
         <v>157</v>
       </c>
       <c r="B162" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>867</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="D162" s="17" t="s">
         <v>868</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>869</v>
       </c>
       <c r="E162" s="18">
         <v>36994</v>
       </c>
       <c r="F162" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="G162" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="H162" s="19" t="s">
         <v>871</v>
-      </c>
-      <c r="H162" s="19" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -9125,13 +9122,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="D165" s="13" t="s">
         <v>988</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>989</v>
       </c>
       <c r="E165" s="14">
         <v>35966</v>
@@ -9140,10 +9137,10 @@
         <v>457</v>
       </c>
       <c r="G165" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="H165" s="15" t="s">
         <v>990</v>
-      </c>
-      <c r="H165" s="15" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9255,13 +9252,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="E170" s="2">
         <v>35325</v>
@@ -9270,10 +9267,10 @@
         <v>393</v>
       </c>
       <c r="G170" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="H170" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -9281,13 +9278,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="E171" s="2">
         <v>35942</v>
@@ -9296,10 +9293,10 @@
         <v>393</v>
       </c>
       <c r="G171" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H171" s="11" t="s">
         <v>882</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -9307,13 +9304,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="E172" s="2">
         <v>36302</v>
@@ -9322,10 +9319,10 @@
         <v>393</v>
       </c>
       <c r="G172" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="H172" s="11" t="s">
         <v>985</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9333,13 +9330,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>1013</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="D173" s="13" t="s">
         <v>1014</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>1015</v>
       </c>
       <c r="E173" s="14">
         <v>35321</v>
@@ -9348,10 +9345,10 @@
         <v>393</v>
       </c>
       <c r="G173" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H173" s="15" t="s">
         <v>1016</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -9437,13 +9434,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C177" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="D177" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>853</v>
       </c>
       <c r="E177" s="14">
         <v>35664</v>
@@ -9452,10 +9449,10 @@
         <v>35</v>
       </c>
       <c r="G177" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="H177" s="15" t="s">
         <v>854</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9463,25 +9460,25 @@
         <v>177</v>
       </c>
       <c r="B178" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="C178" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="D178" s="17" t="s">
         <v>971</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>972</v>
       </c>
       <c r="E178" s="18">
         <v>35923</v>
       </c>
       <c r="F178" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="G178" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="G178" s="17" t="s">
+      <c r="H178" s="19" t="s">
         <v>974</v>
-      </c>
-      <c r="H178" s="19" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9489,25 +9486,25 @@
         <v>178</v>
       </c>
       <c r="B179" s="17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C179" s="17" t="s">
         <v>1370</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="D179" s="17" t="s">
         <v>1371</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>1372</v>
       </c>
       <c r="E179" s="18">
         <v>36677</v>
       </c>
       <c r="F179" s="17" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G179" s="17" t="s">
         <v>1373</v>
       </c>
-      <c r="G179" s="17" t="s">
+      <c r="H179" s="19" t="s">
         <v>1374</v>
-      </c>
-      <c r="H179" s="19" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -9593,13 +9590,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="E183" s="2">
         <v>37141</v>
@@ -9608,10 +9605,10 @@
         <v>473</v>
       </c>
       <c r="G183" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="H183" s="11" t="s">
         <v>1000</v>
-      </c>
-      <c r="H183" s="11" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9619,25 +9616,25 @@
         <v>183</v>
       </c>
       <c r="B184" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="C184" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="D184" s="13" t="s">
         <v>862</v>
-      </c>
-      <c r="D184" s="13" t="s">
-        <v>863</v>
       </c>
       <c r="E184" s="14">
         <v>36829</v>
       </c>
       <c r="F184" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="G184" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="G184" s="13" t="s">
+      <c r="H184" s="15" t="s">
         <v>865</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -9671,25 +9668,25 @@
         <v>185</v>
       </c>
       <c r="B186" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C186" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="D186" s="13" t="s">
         <v>917</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>918</v>
       </c>
       <c r="E186" s="14">
         <v>36815</v>
       </c>
       <c r="F186" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="G186" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="G186" s="13" t="s">
+      <c r="H186" s="15" t="s">
         <v>920</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9749,25 +9746,25 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="D189" s="7" t="s">
         <v>1156</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>1157</v>
       </c>
       <c r="E189" s="8">
         <v>37060</v>
       </c>
       <c r="F189" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="H189" s="9" t="s">
         <v>1159</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -9775,25 +9772,25 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="E190" s="2">
         <v>36359</v>
       </c>
       <c r="F190" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="H190" s="11" t="s">
         <v>1288</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -9801,25 +9798,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="E191" s="2">
         <v>37295</v>
       </c>
       <c r="F191" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="11" t="s">
         <v>1202</v>
-      </c>
-      <c r="H191" s="11" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9853,13 +9850,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>1151</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>1152</v>
       </c>
       <c r="E193" s="8">
         <v>37394</v>
@@ -9868,10 +9865,10 @@
         <v>445</v>
       </c>
       <c r="G193" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H193" s="9" t="s">
         <v>1153</v>
-      </c>
-      <c r="H193" s="9" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -9931,13 +9928,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="E196" s="2">
         <v>35465</v>
@@ -9946,10 +9943,10 @@
         <v>287</v>
       </c>
       <c r="G196" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H196" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="H196" s="11" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -9983,13 +9980,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="E198" s="2">
         <v>36784</v>
@@ -9998,10 +9995,10 @@
         <v>707</v>
       </c>
       <c r="G198" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H198" s="11" t="s">
         <v>1293</v>
-      </c>
-      <c r="H198" s="11" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10009,25 +10006,25 @@
         <v>198</v>
       </c>
       <c r="B199" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C199" s="13" t="s">
         <v>1342</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="D199" s="13" t="s">
         <v>1343</v>
-      </c>
-      <c r="D199" s="13" t="s">
-        <v>1344</v>
       </c>
       <c r="E199" s="14">
         <v>37278</v>
       </c>
       <c r="F199" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G199" s="13" t="s">
         <v>1345</v>
       </c>
-      <c r="G199" s="13" t="s">
+      <c r="H199" s="15" t="s">
         <v>1346</v>
-      </c>
-      <c r="H199" s="15" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -10087,13 +10084,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="E202" s="2">
         <v>36771</v>
@@ -10102,10 +10099,10 @@
         <v>70</v>
       </c>
       <c r="G202" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H202" s="11" t="s">
         <v>789</v>
-      </c>
-      <c r="H202" s="11" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -10113,13 +10110,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="E203" s="2">
         <v>36723</v>
@@ -10128,10 +10125,10 @@
         <v>70</v>
       </c>
       <c r="G203" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H203" s="11" t="s">
         <v>995</v>
-      </c>
-      <c r="H203" s="11" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10139,13 +10136,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C204" s="13" t="s">
         <v>1332</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="D204" s="13" t="s">
         <v>1333</v>
-      </c>
-      <c r="D204" s="13" t="s">
-        <v>1334</v>
       </c>
       <c r="E204" s="14">
         <v>36736</v>
@@ -10154,10 +10151,10 @@
         <v>70</v>
       </c>
       <c r="G204" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H204" s="15" t="s">
         <v>1335</v>
-      </c>
-      <c r="H204" s="15" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10177,13 +10174,13 @@
         <v>36915</v>
       </c>
       <c r="F205" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G205" s="27" t="s">
         <v>773</v>
       </c>
-      <c r="G205" s="27" t="s">
+      <c r="H205" s="29" t="s">
         <v>774</v>
-      </c>
-      <c r="H205" s="29" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -10191,25 +10188,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C206" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>1365</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>1366</v>
       </c>
       <c r="E206" s="8">
         <v>36905</v>
       </c>
       <c r="F206" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G206" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="G206" s="7" t="s">
+      <c r="H206" s="9" t="s">
         <v>1368</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10243,25 +10240,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="E208" s="8">
         <v>35979</v>
       </c>
       <c r="F208" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="G208" s="7" t="s">
+      <c r="H208" s="9" t="s">
         <v>832</v>
-      </c>
-      <c r="H208" s="9" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -10269,25 +10266,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="E209" s="2">
         <v>36975</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="H209" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="H209" s="11" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10373,25 +10370,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C213" s="17" t="s">
         <v>1028</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="D213" s="17" t="s">
         <v>1029</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>1030</v>
       </c>
       <c r="E213" s="18">
         <v>36348</v>
       </c>
       <c r="F213" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G213" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="G213" s="17" t="s">
+      <c r="H213" s="19" t="s">
         <v>1032</v>
-      </c>
-      <c r="H213" s="19" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10451,25 +10448,25 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>1270</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>1271</v>
       </c>
       <c r="E216" s="31">
         <v>37981</v>
       </c>
       <c r="F216" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G216" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="G216" s="3" t="s">
+      <c r="H216" s="32" t="s">
         <v>1273</v>
-      </c>
-      <c r="H216" s="32" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="217" spans="1:8" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10477,25 +10474,25 @@
         <v>216</v>
       </c>
       <c r="B217" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="C217" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="D217" s="17" t="s">
         <v>960</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>961</v>
       </c>
       <c r="E217" s="18">
         <v>35787</v>
       </c>
       <c r="F217" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="G217" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="G217" s="17" t="s">
+      <c r="H217" s="17" t="s">
         <v>963</v>
-      </c>
-      <c r="H217" s="17" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -10633,13 +10630,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>1303</v>
       </c>
       <c r="E223" s="2">
         <v>37167</v>
@@ -10648,10 +10645,10 @@
         <v>364</v>
       </c>
       <c r="G223" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H223" s="11" t="s">
         <v>1304</v>
-      </c>
-      <c r="H223" s="11" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -10659,13 +10656,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>1318</v>
       </c>
       <c r="E224" s="2">
         <v>36441</v>
@@ -10674,10 +10671,10 @@
         <v>364</v>
       </c>
       <c r="G224" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H224" s="11" t="s">
         <v>1319</v>
-      </c>
-      <c r="H224" s="11" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -10711,13 +10708,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>1281</v>
       </c>
       <c r="E226" s="2">
         <v>36208</v>
@@ -10726,10 +10723,10 @@
         <v>619</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H226" s="11" t="s">
         <v>1282</v>
-      </c>
-      <c r="H226" s="11" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -10789,25 +10786,25 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="E229" s="2">
         <v>37063</v>
       </c>
       <c r="F229" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="11" t="s">
         <v>937</v>
-      </c>
-      <c r="H229" s="11" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -10841,25 +10838,25 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="E231" s="2">
         <v>36581</v>
       </c>
       <c r="F231" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="H231" s="11" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -11283,13 +11280,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="E248" s="2">
         <v>36756</v>
@@ -11298,10 +11295,10 @@
         <v>767</v>
       </c>
       <c r="G248" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H248" s="11" t="s">
         <v>968</v>
-      </c>
-      <c r="H248" s="11" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -11309,25 +11306,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1297</v>
       </c>
       <c r="E249" s="2">
         <v>36417</v>
       </c>
       <c r="F249" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="H249" s="11" t="s">
         <v>1299</v>
-      </c>
-      <c r="H249" s="11" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
